--- a/3-DB/RoSA/Vendor.xlsx
+++ b/3-DB/RoSA/Vendor.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Revature\Batches\220425-UiPath\training-code\2-Intro2RPA\RoSA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Revature\Batches\220425-UiPath\training-code\3-DB\RoSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5282C12A-BB8A-428C-8105-E834328FFD2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D4D97A-4154-47E4-ADC2-C992AEC0F143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A9D00EA2-5448-437A-B209-FB0EA3795FDC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Bakery" sheetId="1" r:id="rId1"/>
+    <sheet name="Index" sheetId="2" r:id="rId1"/>
+    <sheet name="Bakery" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Product</t>
   </si>
@@ -50,6 +51,12 @@
   </si>
   <si>
     <t>cake</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Bakery</t>
   </si>
 </sst>
 </file>
@@ -400,11 +407,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7989A82-22EE-4A6E-BF12-ACAAF14005A5}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F2BA8D0-BE20-4CC1-8F95-C2082EF7A1F8}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
